--- a/Code/Results/Cases/Case_5_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7012404040030731</v>
+        <v>0.4835600043714692</v>
       </c>
       <c r="C2">
-        <v>0.2812571906222558</v>
+        <v>0.2318306736508191</v>
       </c>
       <c r="D2">
-        <v>0.005318067889836797</v>
+        <v>0.02719723791139472</v>
       </c>
       <c r="E2">
-        <v>0.0506352555645968</v>
+        <v>0.09970402780494325</v>
       </c>
       <c r="F2">
-        <v>3.185149749102081</v>
+        <v>3.785143198636646</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.859457500778745</v>
+        <v>2.124850447428841</v>
       </c>
       <c r="J2">
-        <v>0.1393455062714182</v>
+        <v>0.2065888780661069</v>
       </c>
       <c r="K2">
-        <v>0.9718861408519501</v>
+        <v>0.7140377030638092</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2840598884117327</v>
+        <v>0.2989512149090956</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6072609047792525</v>
+        <v>0.4641018815268865</v>
       </c>
       <c r="C3">
-        <v>0.2473488027455915</v>
+        <v>0.2245224549583327</v>
       </c>
       <c r="D3">
-        <v>0.00457448979756947</v>
+        <v>0.02765857281840312</v>
       </c>
       <c r="E3">
-        <v>0.04682377556943251</v>
+        <v>0.09945838426494902</v>
       </c>
       <c r="F3">
-        <v>2.977889889380776</v>
+        <v>3.735384344745228</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.752044847904997</v>
+        <v>2.096630956416888</v>
       </c>
       <c r="J3">
-        <v>0.1304632456868688</v>
+        <v>0.2050118552615956</v>
       </c>
       <c r="K3">
-        <v>0.844618122479261</v>
+        <v>0.6874523524116682</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2501291641254149</v>
+        <v>0.2929052685063844</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5504434957828721</v>
+        <v>0.4525560959199595</v>
       </c>
       <c r="C4">
-        <v>0.2269648246974327</v>
+        <v>0.2201839731731923</v>
       </c>
       <c r="D4">
-        <v>0.004121616521485905</v>
+        <v>0.02797041583493076</v>
       </c>
       <c r="E4">
-        <v>0.04455820389539333</v>
+        <v>0.09935553210996595</v>
       </c>
       <c r="F4">
-        <v>2.85412538317658</v>
+        <v>3.705944817236244</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.687903570680959</v>
+        <v>2.079804044332178</v>
       </c>
       <c r="J4">
-        <v>0.1251798572734373</v>
+        <v>0.20411618900485</v>
       </c>
       <c r="K4">
-        <v>0.767810672854182</v>
+        <v>0.6716794352369675</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2297159294520341</v>
+        <v>0.2894000296760666</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5274869827227064</v>
+        <v>0.4479520672405783</v>
       </c>
       <c r="C5">
-        <v>0.2187562218635577</v>
+        <v>0.2184533389793728</v>
       </c>
       <c r="D5">
-        <v>0.003937968175716122</v>
+        <v>0.02810470511489882</v>
       </c>
       <c r="E5">
-        <v>0.04365251767570832</v>
+        <v>0.09932569896604271</v>
       </c>
       <c r="F5">
-        <v>2.804497289118757</v>
+        <v>3.694227242069786</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.662183162016206</v>
+        <v>2.073072290808994</v>
       </c>
       <c r="J5">
-        <v>0.1230665009613929</v>
+        <v>0.2037694556778575</v>
       </c>
       <c r="K5">
-        <v>0.7368093490760259</v>
+        <v>0.6653901955912715</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2214929265529051</v>
+        <v>0.2880236786987638</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5236862512170433</v>
+        <v>0.4471936702024948</v>
       </c>
       <c r="C6">
-        <v>0.2173987880204322</v>
+        <v>0.2181682208900071</v>
       </c>
       <c r="D6">
-        <v>0.00390752724599075</v>
+        <v>0.02812743995606226</v>
       </c>
       <c r="E6">
-        <v>0.04350315497076274</v>
+        <v>0.09932147528647484</v>
       </c>
       <c r="F6">
-        <v>2.796303318034532</v>
+        <v>3.692298400389632</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.657936483743313</v>
+        <v>2.071962048272496</v>
       </c>
       <c r="J6">
-        <v>0.1227178870078021</v>
+        <v>0.2037129834452145</v>
       </c>
       <c r="K6">
-        <v>0.7316785754889281</v>
+        <v>0.6643542255510511</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2201329914126902</v>
+        <v>0.2877982814919555</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5501331312312345</v>
+        <v>0.4524935955525962</v>
       </c>
       <c r="C7">
-        <v>0.2268537383667422</v>
+        <v>0.2201604821868415</v>
       </c>
       <c r="D7">
-        <v>0.004119136158713843</v>
+        <v>0.02797219767890802</v>
       </c>
       <c r="E7">
-        <v>0.04454591998734436</v>
+        <v>0.09935508083622224</v>
       </c>
       <c r="F7">
-        <v>2.853452905153802</v>
+        <v>3.705785659844537</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.687555052911861</v>
+        <v>2.079712750517416</v>
       </c>
       <c r="J7">
-        <v>0.125151199230686</v>
+        <v>0.2041114389192487</v>
       </c>
       <c r="K7">
-        <v>0.7673914178524512</v>
+        <v>0.6715940562963283</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2296046571488475</v>
+        <v>0.2893812569106906</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6686361364586162</v>
+        <v>0.4767674811760969</v>
       </c>
       <c r="C8">
-        <v>0.2694678575996647</v>
+        <v>0.2292798642111507</v>
       </c>
       <c r="D8">
-        <v>0.00506090017721661</v>
+        <v>0.02735038820382663</v>
       </c>
       <c r="E8">
-        <v>0.04930478665909277</v>
+        <v>0.0996093823866353</v>
       </c>
       <c r="F8">
-        <v>3.112916670497142</v>
+        <v>3.767755099136721</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.82202238028961</v>
+        <v>2.115016363759707</v>
       </c>
       <c r="J8">
-        <v>0.1362455655965107</v>
+        <v>0.2060300412324878</v>
       </c>
       <c r="K8">
-        <v>0.9277034452958617</v>
+        <v>0.7047567251963187</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2722669805243072</v>
+        <v>0.2968236136465308</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9093305377486445</v>
+        <v>0.5275589310409714</v>
       </c>
       <c r="C9">
-        <v>0.3570655735087769</v>
+        <v>0.2483486270587889</v>
       </c>
       <c r="D9">
-        <v>0.0069383798744731</v>
+        <v>0.02635678120905283</v>
       </c>
       <c r="E9">
-        <v>0.05929015475907207</v>
+        <v>0.100488155412453</v>
       </c>
       <c r="F9">
-        <v>3.652969985329463</v>
+        <v>3.898136612664985</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.101925357345237</v>
+        <v>2.188234985402829</v>
       </c>
       <c r="J9">
-        <v>0.1595093059140922</v>
+        <v>0.210369382461927</v>
       </c>
       <c r="K9">
-        <v>1.25452703124472</v>
+        <v>0.7741668372296999</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.359764297685345</v>
+        <v>0.3130613617856284</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.093197965822498</v>
+        <v>0.5668313854141047</v>
       </c>
       <c r="C10">
-        <v>0.4247634838914678</v>
+        <v>0.2630901935058034</v>
       </c>
       <c r="D10">
-        <v>0.008338823233959403</v>
+        <v>0.02576305880057106</v>
       </c>
       <c r="E10">
-        <v>0.06711746565720844</v>
+        <v>0.101364984091024</v>
       </c>
       <c r="F10">
-        <v>4.07418668832787</v>
+        <v>3.99938547664928</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.320277693849803</v>
+        <v>2.244496169848105</v>
       </c>
       <c r="J10">
-        <v>0.1777591917054338</v>
+        <v>0.2139107220162799</v>
       </c>
       <c r="K10">
-        <v>1.505087262686999</v>
+        <v>0.8278518844749101</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4271572920433755</v>
+        <v>0.3259962775448244</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.17886145509533</v>
+        <v>0.585124954387112</v>
       </c>
       <c r="C11">
-        <v>0.4565080436944982</v>
+        <v>0.2699574749775877</v>
       </c>
       <c r="D11">
-        <v>0.008981075499406188</v>
+        <v>0.02552227101156745</v>
       </c>
       <c r="E11">
-        <v>0.07080806105763315</v>
+        <v>0.101813989881844</v>
       </c>
       <c r="F11">
-        <v>4.272459505857057</v>
+        <v>4.046644292057124</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.423074106214386</v>
+        <v>2.270634803216552</v>
       </c>
       <c r="J11">
-        <v>0.1863725461670214</v>
+        <v>0.2155988326672542</v>
       </c>
       <c r="K11">
-        <v>1.622055722938541</v>
+        <v>0.8528635374124178</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4586836657274063</v>
+        <v>0.332099801368571</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.211636407247198</v>
+        <v>0.5921139744347101</v>
       </c>
       <c r="C12">
-        <v>0.4686860718946377</v>
+        <v>0.2725812583593381</v>
       </c>
       <c r="D12">
-        <v>0.009225073643559512</v>
+        <v>0.02543528149741192</v>
       </c>
       <c r="E12">
-        <v>0.07222642085582365</v>
+        <v>0.1019912145989714</v>
       </c>
       <c r="F12">
-        <v>4.348622876694947</v>
+        <v>4.06471335746653</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.462564321821162</v>
+        <v>2.280611735955375</v>
       </c>
       <c r="J12">
-        <v>0.189684520003027</v>
+        <v>0.2162491875456993</v>
       </c>
       <c r="K12">
-        <v>1.666844934177391</v>
+        <v>0.8624199168862674</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4707647835798099</v>
+        <v>0.334442625899797</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.20456201311535</v>
+        <v>0.5906060215104389</v>
       </c>
       <c r="C13">
-        <v>0.4660559764966763</v>
+        <v>0.2720151420449781</v>
       </c>
       <c r="D13">
-        <v>0.009172488335934759</v>
+        <v>0.02545383016536817</v>
       </c>
       <c r="E13">
-        <v>0.07191998977017633</v>
+        <v>0.1019527262450346</v>
       </c>
       <c r="F13">
-        <v>4.332169500773119</v>
+        <v>4.060814149333993</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.454033230115144</v>
+        <v>2.278459513805473</v>
       </c>
       <c r="J13">
-        <v>0.1889688968103584</v>
+        <v>0.2161086279405495</v>
       </c>
       <c r="K13">
-        <v>1.657175592773314</v>
+        <v>0.8603579961331889</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4681562448191059</v>
+        <v>0.3339366532589594</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.18155085759949</v>
+        <v>0.5856987095644115</v>
       </c>
       <c r="C14">
-        <v>0.4575066631367406</v>
+        <v>0.2701728677952246</v>
       </c>
       <c r="D14">
-        <v>0.009001133246936632</v>
+        <v>0.02551503044882608</v>
       </c>
       <c r="E14">
-        <v>0.07092432027810602</v>
+        <v>0.1018284261208962</v>
       </c>
       <c r="F14">
-        <v>4.278703073631704</v>
+        <v>4.048127370801126</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.426311301304764</v>
+        <v>2.271454029866092</v>
       </c>
       <c r="J14">
-        <v>0.186643982856566</v>
+        <v>0.215652115144735</v>
       </c>
       <c r="K14">
-        <v>1.625730216557599</v>
+        <v>0.8536480418441954</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4596746164418875</v>
+        <v>0.3322919145389562</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.167501054986133</v>
+        <v>0.5827008685247677</v>
       </c>
       <c r="C15">
-        <v>0.4522910677416689</v>
+        <v>0.2690474581331443</v>
       </c>
       <c r="D15">
-        <v>0.008896277739385283</v>
+        <v>0.02555306262201285</v>
       </c>
       <c r="E15">
-        <v>0.07031722126249562</v>
+        <v>0.1017532254551483</v>
       </c>
       <c r="F15">
-        <v>4.246098130694378</v>
+        <v>4.040378923100178</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.409406240531823</v>
+        <v>2.26717324288299</v>
       </c>
       <c r="J15">
-        <v>0.1852266277295485</v>
+        <v>0.2153739343025336</v>
       </c>
       <c r="K15">
-        <v>1.606535671866737</v>
+        <v>0.849549076708314</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4544985277432332</v>
+        <v>0.3312885739297897</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.087644098708182</v>
+        <v>0.5656444808412289</v>
       </c>
       <c r="C16">
-        <v>0.4227097021917814</v>
+        <v>0.2626446543791587</v>
       </c>
       <c r="D16">
-        <v>0.008296958696938361</v>
+        <v>0.02577938257428158</v>
       </c>
       <c r="E16">
-        <v>0.06687906783516695</v>
+        <v>0.1013366481754616</v>
       </c>
       <c r="F16">
-        <v>4.061373413380466</v>
+        <v>3.996321203328307</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.313634864254922</v>
+        <v>2.242798953209416</v>
       </c>
       <c r="J16">
-        <v>0.1772030122707093</v>
+        <v>0.2138019532113091</v>
       </c>
       <c r="K16">
-        <v>1.497508710042098</v>
+        <v>0.8262292010589363</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4251159343883586</v>
+        <v>0.3256018127380429</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.039202935073575</v>
+        <v>0.5552906785334812</v>
       </c>
       <c r="C17">
-        <v>0.404819409324773</v>
+        <v>0.258758118840916</v>
       </c>
       <c r="D17">
-        <v>0.007930655232282646</v>
+        <v>0.02592571136398547</v>
       </c>
       <c r="E17">
-        <v>0.06480459320497189</v>
+        <v>0.1010939221877294</v>
       </c>
       <c r="F17">
-        <v>3.949840693290867</v>
+        <v>3.969601037238277</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.255814265781154</v>
+        <v>2.227986029632433</v>
       </c>
       <c r="J17">
-        <v>0.1723642774644318</v>
+        <v>0.2128573586941584</v>
       </c>
       <c r="K17">
-        <v>1.431434234150288</v>
+        <v>0.8120744514123999</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.40732531065985</v>
+        <v>0.3221693587124719</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.011528121085746</v>
+        <v>0.5493757586978063</v>
       </c>
       <c r="C18">
-        <v>0.394617292427796</v>
+        <v>0.2565378595208188</v>
       </c>
       <c r="D18">
-        <v>0.007720452151449564</v>
+        <v>0.02601263490089778</v>
       </c>
       <c r="E18">
-        <v>0.0636234983146835</v>
+        <v>0.1009590320358065</v>
       </c>
       <c r="F18">
-        <v>3.886308656949126</v>
+        <v>3.954345237214966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.222879436376317</v>
+        <v>2.219517314212951</v>
       </c>
       <c r="J18">
-        <v>0.1696101126467227</v>
+        <v>0.2123213127321151</v>
       </c>
       <c r="K18">
-        <v>1.393706761703612</v>
+        <v>0.8039885425694138</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3971732325236843</v>
+        <v>0.3202157490654116</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.002188761904193</v>
+        <v>0.5473799909460695</v>
       </c>
       <c r="C19">
-        <v>0.3911775359271985</v>
+        <v>0.2557887207707381</v>
       </c>
       <c r="D19">
-        <v>0.007649362944878391</v>
+        <v>0.02604254025515829</v>
       </c>
       <c r="E19">
-        <v>0.06322561464726917</v>
+        <v>0.1009141715127981</v>
       </c>
       <c r="F19">
-        <v>3.864900477730487</v>
+        <v>3.949199263870469</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.211781711957158</v>
+        <v>2.216658748730239</v>
       </c>
       <c r="J19">
-        <v>0.1686824130244773</v>
+        <v>0.2121410633105398</v>
       </c>
       <c r="K19">
-        <v>1.380978528944809</v>
+        <v>0.8012603251427493</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3937492474255109</v>
+        <v>0.3195578363635789</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.044339885308062</v>
+        <v>0.5563886858506351</v>
       </c>
       <c r="C20">
-        <v>0.4067146211087049</v>
+        <v>0.2591702760877297</v>
       </c>
       <c r="D20">
-        <v>0.007969598344583773</v>
+        <v>0.02590984901758731</v>
       </c>
       <c r="E20">
-        <v>0.06502415877230661</v>
+        <v>0.101119272436982</v>
       </c>
       <c r="F20">
-        <v>3.961648657275276</v>
+        <v>3.972433752201198</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.261935587498371</v>
+        <v>2.229557579746981</v>
       </c>
       <c r="J20">
-        <v>0.1728763350401863</v>
+        <v>0.2129571609460257</v>
       </c>
       <c r="K20">
-        <v>1.438438868290973</v>
+        <v>0.8135755005306464</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4092106862859382</v>
+        <v>0.3225326123559569</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.188300285187097</v>
+        <v>0.5871384326596569</v>
       </c>
       <c r="C21">
-        <v>0.4600133650378382</v>
+        <v>0.270713355407139</v>
       </c>
       <c r="D21">
-        <v>0.009051442541569088</v>
+        <v>0.02549694085438503</v>
       </c>
       <c r="E21">
-        <v>0.07121618963467569</v>
+        <v>0.101864740885464</v>
       </c>
       <c r="F21">
-        <v>4.294377045179033</v>
+        <v>4.051849080457458</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.434438060388032</v>
+        <v>2.273509568444325</v>
       </c>
       <c r="J21">
-        <v>0.1873254549572394</v>
+        <v>0.2157859025637663</v>
       </c>
       <c r="K21">
-        <v>1.634952466101282</v>
+        <v>0.8556166096261393</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4621618501538194</v>
+        <v>0.3327741577681991</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.284370224075332</v>
+        <v>0.6075944963419602</v>
       </c>
       <c r="C22">
-        <v>0.4957739295118131</v>
+        <v>0.2783932432781171</v>
       </c>
       <c r="D22">
-        <v>0.009763124563001213</v>
+        <v>0.02525150346697913</v>
       </c>
       <c r="E22">
-        <v>0.07538550026182378</v>
+        <v>0.1023938854739619</v>
       </c>
       <c r="F22">
-        <v>4.51820710726642</v>
+        <v>4.104761278917834</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.550497854791914</v>
+        <v>2.3026942293925</v>
       </c>
       <c r="J22">
-        <v>0.1970648741680705</v>
+        <v>0.2176993771941866</v>
       </c>
       <c r="K22">
-        <v>1.76631149821273</v>
+        <v>0.8835884842228552</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4976103444449151</v>
+        <v>0.3396515173967387</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.232898078274076</v>
+        <v>0.5966438140930563</v>
       </c>
       <c r="C23">
-        <v>0.4765955912777713</v>
+        <v>0.2742818807037395</v>
       </c>
       <c r="D23">
-        <v>0.009382846699796943</v>
+        <v>0.02538027049113012</v>
       </c>
       <c r="E23">
-        <v>0.07314829171007631</v>
+        <v>0.1021076379159673</v>
       </c>
       <c r="F23">
-        <v>4.398117098780489</v>
+        <v>4.076428459294021</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.488227532712031</v>
+        <v>2.287075646971473</v>
       </c>
       <c r="J23">
-        <v>0.1918376944156748</v>
+        <v>0.2166721931129132</v>
       </c>
       <c r="K23">
-        <v>1.695911146368132</v>
+        <v>0.8686139677733138</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4786073843550369</v>
+        <v>0.3359641093924353</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.042016929460857</v>
+        <v>0.555892159569197</v>
       </c>
       <c r="C24">
-        <v>0.4058575380865932</v>
+        <v>0.2589838956934898</v>
       </c>
       <c r="D24">
-        <v>0.007951990953330323</v>
+        <v>0.02591701166986837</v>
       </c>
       <c r="E24">
-        <v>0.06492485736744058</v>
+        <v>0.1011077970850565</v>
       </c>
       <c r="F24">
-        <v>3.9563084494755</v>
+        <v>3.971152751688351</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.25916718652654</v>
+        <v>2.228846934220343</v>
       </c>
       <c r="J24">
-        <v>0.1726447479761504</v>
+        <v>0.212912018502017</v>
       </c>
       <c r="K24">
-        <v>1.435271269439056</v>
+        <v>0.8128967147469552</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.408358072600258</v>
+        <v>0.3223683238544197</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.84313520524762</v>
+        <v>0.5134758245853845</v>
       </c>
       <c r="C25">
-        <v>0.3328506153064268</v>
+        <v>0.2430621716447092</v>
       </c>
       <c r="D25">
-        <v>0.006426956772301651</v>
+        <v>0.02660154947621152</v>
       </c>
       <c r="E25">
-        <v>0.05650984576788431</v>
+        <v>0.1002097878250297</v>
       </c>
       <c r="F25">
-        <v>3.502999610474888</v>
+        <v>3.861910656092732</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.024192549099652</v>
+        <v>2.167996707210733</v>
       </c>
       <c r="J25">
-        <v>0.1530311100360606</v>
+        <v>0.2091335549174502</v>
       </c>
       <c r="K25">
-        <v>1.164501565580849</v>
+        <v>0.7549187692405894</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3356081376390847</v>
+        <v>0.3084923671637014</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4835600043714692</v>
+        <v>0.7012404040031299</v>
       </c>
       <c r="C2">
-        <v>0.2318306736508191</v>
+        <v>0.2812571906216874</v>
       </c>
       <c r="D2">
-        <v>0.02719723791139472</v>
+        <v>0.00531806788995226</v>
       </c>
       <c r="E2">
-        <v>0.09970402780494325</v>
+        <v>0.05063525556462523</v>
       </c>
       <c r="F2">
-        <v>3.785143198636646</v>
+        <v>3.185149749102095</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.124850447428841</v>
+        <v>1.85945750077876</v>
       </c>
       <c r="J2">
-        <v>0.2065888780661069</v>
+        <v>0.1393455062712761</v>
       </c>
       <c r="K2">
-        <v>0.7140377030638092</v>
+        <v>0.971886140852007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2989512149090956</v>
+        <v>0.284059888411754</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4641018815268865</v>
+        <v>0.607260904779281</v>
       </c>
       <c r="C3">
-        <v>0.2245224549583327</v>
+        <v>0.2473488027458757</v>
       </c>
       <c r="D3">
-        <v>0.02765857281840312</v>
+        <v>0.004574489797684933</v>
       </c>
       <c r="E3">
-        <v>0.09945838426494902</v>
+        <v>0.04682377556946449</v>
       </c>
       <c r="F3">
-        <v>3.735384344745228</v>
+        <v>2.977889889380776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.096630956416888</v>
+        <v>1.752044847904997</v>
       </c>
       <c r="J3">
-        <v>0.2050118552615956</v>
+        <v>0.130463245686812</v>
       </c>
       <c r="K3">
-        <v>0.6874523524116682</v>
+        <v>0.8446181224792326</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2929052685063844</v>
+        <v>0.2501291641254326</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4525560959199595</v>
+        <v>0.5504434957829858</v>
       </c>
       <c r="C4">
-        <v>0.2201839731731923</v>
+        <v>0.2269648246976601</v>
       </c>
       <c r="D4">
-        <v>0.02797041583493076</v>
+        <v>0.004121616521558735</v>
       </c>
       <c r="E4">
-        <v>0.09935553210996595</v>
+        <v>0.04455820389542176</v>
       </c>
       <c r="F4">
-        <v>3.705944817236244</v>
+        <v>2.854125383176523</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.079804044332178</v>
+        <v>1.687903570680959</v>
       </c>
       <c r="J4">
-        <v>0.20411618900485</v>
+        <v>0.1251798572734231</v>
       </c>
       <c r="K4">
-        <v>0.6716794352369675</v>
+        <v>0.7678106728541252</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2894000296760666</v>
+        <v>0.2297159294520519</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4479520672405783</v>
+        <v>0.5274869827226496</v>
       </c>
       <c r="C5">
-        <v>0.2184533389793728</v>
+        <v>0.2187562218635577</v>
       </c>
       <c r="D5">
-        <v>0.02810470511489882</v>
+        <v>0.003937968175462103</v>
       </c>
       <c r="E5">
-        <v>0.09932569896604271</v>
+        <v>0.0436525176757101</v>
       </c>
       <c r="F5">
-        <v>3.694227242069786</v>
+        <v>2.804497289118771</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.073072290808994</v>
+        <v>1.662183162016206</v>
       </c>
       <c r="J5">
-        <v>0.2037694556778575</v>
+        <v>0.1230665009613716</v>
       </c>
       <c r="K5">
-        <v>0.6653901955912715</v>
+        <v>0.7368093490759975</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2880236786987638</v>
+        <v>0.2214929265529122</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4471936702024948</v>
+        <v>0.5236862512170717</v>
       </c>
       <c r="C6">
-        <v>0.2181682208900071</v>
+        <v>0.2173987880202475</v>
       </c>
       <c r="D6">
-        <v>0.02812743995606226</v>
+        <v>0.003907527246221676</v>
       </c>
       <c r="E6">
-        <v>0.09932147528647484</v>
+        <v>0.04350315497079649</v>
       </c>
       <c r="F6">
-        <v>3.692298400389632</v>
+        <v>2.79630331803456</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.071962048272496</v>
+        <v>1.657936483743313</v>
       </c>
       <c r="J6">
-        <v>0.2037129834452145</v>
+        <v>0.1227178870077665</v>
       </c>
       <c r="K6">
-        <v>0.6643542255510511</v>
+        <v>0.7316785754889281</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2877982814919555</v>
+        <v>0.220132991412715</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4524935955525962</v>
+        <v>0.5501331312312345</v>
       </c>
       <c r="C7">
-        <v>0.2201604821868415</v>
+        <v>0.2268537383667564</v>
       </c>
       <c r="D7">
-        <v>0.02797219767890802</v>
+        <v>0.00411913615857884</v>
       </c>
       <c r="E7">
-        <v>0.09935508083622224</v>
+        <v>0.04454591998734081</v>
       </c>
       <c r="F7">
-        <v>3.705785659844537</v>
+        <v>2.853452905153745</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.079712750517416</v>
+        <v>1.687555052911833</v>
       </c>
       <c r="J7">
-        <v>0.2041114389192487</v>
+        <v>0.1251511992307286</v>
       </c>
       <c r="K7">
-        <v>0.6715940562963283</v>
+        <v>0.7673914178525081</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2893812569106906</v>
+        <v>0.2296046571488368</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4767674811760969</v>
+        <v>0.6686361364585309</v>
       </c>
       <c r="C8">
-        <v>0.2292798642111507</v>
+        <v>0.2694678575999205</v>
       </c>
       <c r="D8">
-        <v>0.02735038820382663</v>
+        <v>0.005060900177188188</v>
       </c>
       <c r="E8">
-        <v>0.0996093823866353</v>
+        <v>0.04930478665904658</v>
       </c>
       <c r="F8">
-        <v>3.767755099136721</v>
+        <v>3.112916670497171</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.115016363759707</v>
+        <v>1.82202238028961</v>
       </c>
       <c r="J8">
-        <v>0.2060300412324878</v>
+        <v>0.1362455655965107</v>
       </c>
       <c r="K8">
-        <v>0.7047567251963187</v>
+        <v>0.9277034452959185</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2968236136465308</v>
+        <v>0.2722669805243072</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5275589310409714</v>
+        <v>0.9093305377484739</v>
       </c>
       <c r="C9">
-        <v>0.2483486270587889</v>
+        <v>0.3570655735082653</v>
       </c>
       <c r="D9">
-        <v>0.02635678120905283</v>
+        <v>0.006938379874593892</v>
       </c>
       <c r="E9">
-        <v>0.100488155412453</v>
+        <v>0.05929015475907207</v>
       </c>
       <c r="F9">
-        <v>3.898136612664985</v>
+        <v>3.652969985329463</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.188234985402829</v>
+        <v>2.101925357345252</v>
       </c>
       <c r="J9">
-        <v>0.210369382461927</v>
+        <v>0.1595093059140993</v>
       </c>
       <c r="K9">
-        <v>0.7741668372296999</v>
+        <v>1.25452703124472</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3130613617856284</v>
+        <v>0.3597642976853379</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5668313854141047</v>
+        <v>1.093197965822327</v>
       </c>
       <c r="C10">
-        <v>0.2630901935058034</v>
+        <v>0.4247634838912404</v>
       </c>
       <c r="D10">
-        <v>0.02576305880057106</v>
+        <v>0.008338823234037562</v>
       </c>
       <c r="E10">
-        <v>0.101364984091024</v>
+        <v>0.06711746565723331</v>
       </c>
       <c r="F10">
-        <v>3.99938547664928</v>
+        <v>4.074186688327899</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.244496169848105</v>
+        <v>2.320277693849789</v>
       </c>
       <c r="J10">
-        <v>0.2139107220162799</v>
+        <v>0.1777591917053556</v>
       </c>
       <c r="K10">
-        <v>0.8278518844749101</v>
+        <v>1.505087262687056</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3259962775448244</v>
+        <v>0.4271572920433897</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.585124954387112</v>
+        <v>1.178861455095131</v>
       </c>
       <c r="C11">
-        <v>0.2699574749775877</v>
+        <v>0.4565080436941571</v>
       </c>
       <c r="D11">
-        <v>0.02552227101156745</v>
+        <v>0.008981075499601587</v>
       </c>
       <c r="E11">
-        <v>0.101813989881844</v>
+        <v>0.07080806105761184</v>
       </c>
       <c r="F11">
-        <v>4.046644292057124</v>
+        <v>4.272459505857057</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.270634803216552</v>
+        <v>2.423074106214415</v>
       </c>
       <c r="J11">
-        <v>0.2155988326672542</v>
+        <v>0.1863725461670214</v>
       </c>
       <c r="K11">
-        <v>0.8528635374124178</v>
+        <v>1.622055722938512</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.332099801368571</v>
+        <v>0.4586836657273992</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5921139744347101</v>
+        <v>1.211636407247198</v>
       </c>
       <c r="C12">
-        <v>0.2725812583593381</v>
+        <v>0.4686860718943819</v>
       </c>
       <c r="D12">
-        <v>0.02543528149741192</v>
+        <v>0.009225073643392534</v>
       </c>
       <c r="E12">
-        <v>0.1019912145989714</v>
+        <v>0.07222642085581299</v>
       </c>
       <c r="F12">
-        <v>4.06471335746653</v>
+        <v>4.348622876694975</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.280611735955375</v>
+        <v>2.462564321821162</v>
       </c>
       <c r="J12">
-        <v>0.2162491875456993</v>
+        <v>0.1896845200030839</v>
       </c>
       <c r="K12">
-        <v>0.8624199168862674</v>
+        <v>1.666844934177476</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.334442625899797</v>
+        <v>0.4707647835798099</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5906060215104389</v>
+        <v>1.204562013115492</v>
       </c>
       <c r="C13">
-        <v>0.2720151420449781</v>
+        <v>0.4660559764971026</v>
       </c>
       <c r="D13">
-        <v>0.02545383016536817</v>
+        <v>0.009172488335771334</v>
       </c>
       <c r="E13">
-        <v>0.1019527262450346</v>
+        <v>0.07191998977017278</v>
       </c>
       <c r="F13">
-        <v>4.060814149333993</v>
+        <v>4.332169500773119</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.278459513805473</v>
+        <v>2.454033230115144</v>
       </c>
       <c r="J13">
-        <v>0.2161086279405495</v>
+        <v>0.1889688968103371</v>
       </c>
       <c r="K13">
-        <v>0.8603579961331889</v>
+        <v>1.657175592773427</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3339366532589594</v>
+        <v>0.4681562448190917</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5856987095644115</v>
+        <v>1.181550857599831</v>
       </c>
       <c r="C14">
-        <v>0.2701728677952246</v>
+        <v>0.4575066631371953</v>
       </c>
       <c r="D14">
-        <v>0.02551503044882608</v>
+        <v>0.009001133246901105</v>
       </c>
       <c r="E14">
-        <v>0.1018284261208962</v>
+        <v>0.07092432027812023</v>
       </c>
       <c r="F14">
-        <v>4.048127370801126</v>
+        <v>4.278703073631732</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.271454029866092</v>
+        <v>2.426311301304736</v>
       </c>
       <c r="J14">
-        <v>0.215652115144735</v>
+        <v>0.186643982856566</v>
       </c>
       <c r="K14">
-        <v>0.8536480418441954</v>
+        <v>1.625730216557571</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3322919145389562</v>
+        <v>0.4596746164418732</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5827008685247677</v>
+        <v>1.167501054985934</v>
       </c>
       <c r="C15">
-        <v>0.2690474581331443</v>
+        <v>0.4522910677418395</v>
       </c>
       <c r="D15">
-        <v>0.02555306262201285</v>
+        <v>0.008896277739403047</v>
       </c>
       <c r="E15">
-        <v>0.1017532254551483</v>
+        <v>0.07031722126253825</v>
       </c>
       <c r="F15">
-        <v>4.040378923100178</v>
+        <v>4.246098130694406</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.26717324288299</v>
+        <v>2.409406240531823</v>
       </c>
       <c r="J15">
-        <v>0.2153739343025336</v>
+        <v>0.1852266277294703</v>
       </c>
       <c r="K15">
-        <v>0.849549076708314</v>
+        <v>1.606535671866652</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3312885739297897</v>
+        <v>0.454498527743219</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5656444808412289</v>
+        <v>1.08764409870804</v>
       </c>
       <c r="C16">
-        <v>0.2626446543791587</v>
+        <v>0.4227097021912414</v>
       </c>
       <c r="D16">
-        <v>0.02577938257428158</v>
+        <v>0.008296958696785595</v>
       </c>
       <c r="E16">
-        <v>0.1013366481754616</v>
+        <v>0.06687906783513142</v>
       </c>
       <c r="F16">
-        <v>3.996321203328307</v>
+        <v>4.061373413380466</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.242798953209416</v>
+        <v>2.313634864254908</v>
       </c>
       <c r="J16">
-        <v>0.2138019532113091</v>
+        <v>0.1772030122706596</v>
       </c>
       <c r="K16">
-        <v>0.8262292010589363</v>
+        <v>1.497508710042297</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3256018127380429</v>
+        <v>0.4251159343883657</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5552906785334812</v>
+        <v>1.039202935073774</v>
       </c>
       <c r="C17">
-        <v>0.258758118840916</v>
+        <v>0.4048194093252278</v>
       </c>
       <c r="D17">
-        <v>0.02592571136398547</v>
+        <v>0.007930655232726735</v>
       </c>
       <c r="E17">
-        <v>0.1010939221877294</v>
+        <v>0.06480459320501808</v>
       </c>
       <c r="F17">
-        <v>3.969601037238277</v>
+        <v>3.949840693290867</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.227986029632433</v>
+        <v>2.255814265781183</v>
       </c>
       <c r="J17">
-        <v>0.2128573586941584</v>
+        <v>0.172364277464446</v>
       </c>
       <c r="K17">
-        <v>0.8120744514123999</v>
+        <v>1.431434234150288</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3221693587124719</v>
+        <v>0.40732531065985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5493757586978063</v>
+        <v>1.011528121085604</v>
       </c>
       <c r="C18">
-        <v>0.2565378595208188</v>
+        <v>0.3946172924275402</v>
       </c>
       <c r="D18">
-        <v>0.02601263490089778</v>
+        <v>0.007720452151424695</v>
       </c>
       <c r="E18">
-        <v>0.1009590320358065</v>
+        <v>0.06362349831469771</v>
       </c>
       <c r="F18">
-        <v>3.954345237214966</v>
+        <v>3.886308656949154</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.219517314212951</v>
+        <v>2.222879436376317</v>
       </c>
       <c r="J18">
-        <v>0.2123213127321151</v>
+        <v>0.1696101126467795</v>
       </c>
       <c r="K18">
-        <v>0.8039885425694138</v>
+        <v>1.39370676170364</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3202157490654116</v>
+        <v>0.3971732325237127</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5473799909460695</v>
+        <v>1.002188761904222</v>
       </c>
       <c r="C19">
-        <v>0.2557887207707381</v>
+        <v>0.3911775359269427</v>
       </c>
       <c r="D19">
-        <v>0.02604254025515829</v>
+        <v>0.007649362945254978</v>
       </c>
       <c r="E19">
-        <v>0.1009141715127981</v>
+        <v>0.06322561464724075</v>
       </c>
       <c r="F19">
-        <v>3.949199263870469</v>
+        <v>3.864900477730487</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.216658748730239</v>
+        <v>2.211781711957158</v>
       </c>
       <c r="J19">
-        <v>0.2121410633105398</v>
+        <v>0.1686824130245697</v>
       </c>
       <c r="K19">
-        <v>0.8012603251427493</v>
+        <v>1.380978528944723</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3195578363635789</v>
+        <v>0.3937492474254967</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5563886858506351</v>
+        <v>1.044339885308005</v>
       </c>
       <c r="C20">
-        <v>0.2591702760877297</v>
+        <v>0.4067146211089891</v>
       </c>
       <c r="D20">
-        <v>0.02590984901758731</v>
+        <v>0.007969598344327977</v>
       </c>
       <c r="E20">
-        <v>0.101119272436982</v>
+        <v>0.06502415877231371</v>
       </c>
       <c r="F20">
-        <v>3.972433752201198</v>
+        <v>3.961648657275276</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.229557579746981</v>
+        <v>2.261935587498371</v>
       </c>
       <c r="J20">
-        <v>0.2129571609460257</v>
+        <v>0.1728763350401579</v>
       </c>
       <c r="K20">
-        <v>0.8135755005306464</v>
+        <v>1.438438868290973</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3225326123559569</v>
+        <v>0.4092106862859595</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5871384326596569</v>
+        <v>1.188300285187239</v>
       </c>
       <c r="C21">
-        <v>0.270713355407139</v>
+        <v>0.4600133650376392</v>
       </c>
       <c r="D21">
-        <v>0.02549694085438503</v>
+        <v>0.00905144254172896</v>
       </c>
       <c r="E21">
-        <v>0.101864740885464</v>
+        <v>0.07121618963471121</v>
       </c>
       <c r="F21">
-        <v>4.051849080457458</v>
+        <v>4.294377045178948</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.273509568444325</v>
+        <v>2.434438060388018</v>
       </c>
       <c r="J21">
-        <v>0.2157859025637663</v>
+        <v>0.1873254549569623</v>
       </c>
       <c r="K21">
-        <v>0.8556166096261393</v>
+        <v>1.63495246610114</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3327741577681991</v>
+        <v>0.4621618501538265</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6075944963419602</v>
+        <v>1.284370224075502</v>
       </c>
       <c r="C22">
-        <v>0.2783932432781171</v>
+        <v>0.4957739295120405</v>
       </c>
       <c r="D22">
-        <v>0.02525150346697913</v>
+        <v>0.009763124562848446</v>
       </c>
       <c r="E22">
-        <v>0.1023938854739619</v>
+        <v>0.07538550026182023</v>
       </c>
       <c r="F22">
-        <v>4.104761278917834</v>
+        <v>4.518207107266392</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.3026942293925</v>
+        <v>2.550497854791928</v>
       </c>
       <c r="J22">
-        <v>0.2176993771941866</v>
+        <v>0.1970648741683334</v>
       </c>
       <c r="K22">
-        <v>0.8835884842228552</v>
+        <v>1.766311498212531</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3396515173967387</v>
+        <v>0.4976103444449151</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5966438140930563</v>
+        <v>1.232898078274019</v>
       </c>
       <c r="C23">
-        <v>0.2742818807037395</v>
+        <v>0.4765955912775155</v>
       </c>
       <c r="D23">
-        <v>0.02538027049113012</v>
+        <v>0.009382846699416802</v>
       </c>
       <c r="E23">
-        <v>0.1021076379159673</v>
+        <v>0.07314829171007631</v>
       </c>
       <c r="F23">
-        <v>4.076428459294021</v>
+        <v>4.398117098780489</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.287075646971473</v>
+        <v>2.488227532712045</v>
       </c>
       <c r="J23">
-        <v>0.2166721931129132</v>
+        <v>0.1918376944155114</v>
       </c>
       <c r="K23">
-        <v>0.8686139677733138</v>
+        <v>1.695911146368019</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3359641093924353</v>
+        <v>0.4786073843550369</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.555892159569197</v>
+        <v>1.042016929460715</v>
       </c>
       <c r="C24">
-        <v>0.2589838956934898</v>
+        <v>0.4058575380867921</v>
       </c>
       <c r="D24">
-        <v>0.02591701166986837</v>
+        <v>0.007951990953394272</v>
       </c>
       <c r="E24">
-        <v>0.1011077970850565</v>
+        <v>0.06492485736742992</v>
       </c>
       <c r="F24">
-        <v>3.971152751688351</v>
+        <v>3.9563084494755</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.228846934220343</v>
+        <v>2.25916718652654</v>
       </c>
       <c r="J24">
-        <v>0.212912018502017</v>
+        <v>0.1726447479762427</v>
       </c>
       <c r="K24">
-        <v>0.8128967147469552</v>
+        <v>1.435271269439085</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3223683238544197</v>
+        <v>0.4083580726002793</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5134758245853845</v>
+        <v>0.8431352052475631</v>
       </c>
       <c r="C25">
-        <v>0.2430621716447092</v>
+        <v>0.3328506153064268</v>
       </c>
       <c r="D25">
-        <v>0.02660154947621152</v>
+        <v>0.006426956772624948</v>
       </c>
       <c r="E25">
-        <v>0.1002097878250297</v>
+        <v>0.05650984576787366</v>
       </c>
       <c r="F25">
-        <v>3.861910656092732</v>
+        <v>3.502999610474916</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.167996707210733</v>
+        <v>2.024192549099652</v>
       </c>
       <c r="J25">
-        <v>0.2091335549174502</v>
+        <v>0.1530311100360322</v>
       </c>
       <c r="K25">
-        <v>0.7549187692405894</v>
+        <v>1.164501565580849</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3084923671637014</v>
+        <v>0.3356081376390918</v>
       </c>
       <c r="N25">
         <v>0</v>
